--- a/Edulis trossulus galloprovincialis in Goseid/R_calc_geomorph/Data/gen_markers.xlsx
+++ b/Edulis trossulus galloprovincialis in Goseid/R_calc_geomorph/Data/gen_markers.xlsx
@@ -22,13 +22,13 @@
     <t>Gen_ID</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Ga</t>
   </si>
   <si>
     <t>Sex</t>
@@ -339,12 +339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,12 +364,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -384,15 +378,139 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,141 +522,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -567,19 +556,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,163 +676,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,6 +747,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -776,20 +789,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,47 +839,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,148 +852,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,18 +1005,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1350,7 +1339,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/Edulis trossulus galloprovincialis in Goseid/R_calc_geomorph/Data/gen_markers.xlsx
+++ b/Edulis trossulus galloprovincialis in Goseid/R_calc_geomorph/Data/gen_markers.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9407"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="115">
   <si>
     <t>file</t>
   </si>
@@ -32,6 +32,33 @@
   </si>
   <si>
     <t>Sex</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>dpr</t>
+  </si>
+  <si>
+    <t>lpr</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>aam</t>
   </si>
   <si>
     <t>g1_landmarks.txt</t>
@@ -344,7 +371,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +389,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -385,21 +418,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -415,25 +515,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,38 +540,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,45 +561,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,7 +595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,19 +625,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +721,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,73 +769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,49 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,36 +806,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,8 +843,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,11 +875,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,16 +903,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,131 +924,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,18 +1056,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1069,6 +1131,18 @@
     <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1336,18 +1410,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2:O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,213 +1441,510 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5">
         <v>0.363</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>0.542</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8">
+        <v>19.72</v>
+      </c>
+      <c r="H2" s="8">
+        <v>36.54</v>
+      </c>
+      <c r="I2" s="8">
+        <v>19.72</v>
+      </c>
+      <c r="J2" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="K2" s="8">
+        <v>19.92</v>
+      </c>
+      <c r="L2" s="8">
+        <v>4.97</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="N2" s="8">
+        <v>4.18</v>
+      </c>
+      <c r="O2" s="8">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8">
+        <v>15.92</v>
+      </c>
+      <c r="H3" s="8">
+        <v>32.7</v>
+      </c>
+      <c r="I3" s="8">
+        <v>16.84</v>
+      </c>
+      <c r="J3" s="8">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8">
+        <v>14.74</v>
+      </c>
+      <c r="L3" s="8">
+        <v>3.08</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="N3" s="8">
+        <v>3.54</v>
+      </c>
+      <c r="O3" s="8">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>0.097</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>0.745</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>0.159</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>0.024</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>0.934</v>
       </c>
       <c r="E6" s="1">
         <v>0.042</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>0.019</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>0.262</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.72</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11">
         <v>0.411</v>
       </c>
       <c r="D8" s="1">
         <v>0.046</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>0.543</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>0.024</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>0.933</v>
       </c>
       <c r="E9" s="1">
         <v>0.043</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>0.054</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>0.905</v>
       </c>
       <c r="E10" s="1">
         <v>0.041</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>0.015</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>0.891</v>
       </c>
       <c r="E11" s="1">
         <v>0.095</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.14</v>
+      </c>
+      <c r="H11" s="8">
+        <v>38.34</v>
+      </c>
+      <c r="I11" s="8">
+        <v>21.16</v>
+      </c>
+      <c r="J11" s="8">
+        <v>20.22</v>
+      </c>
+      <c r="K11" s="8">
+        <v>20.22</v>
+      </c>
+      <c r="L11" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="M11" s="8">
+        <v>2.94</v>
+      </c>
+      <c r="N11" s="8">
+        <v>3.72</v>
+      </c>
+      <c r="O11" s="8">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>0.017</v>
@@ -1580,219 +1952,516 @@
       <c r="D12" s="1">
         <v>0.028</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>0.955</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8">
+        <v>20.54</v>
+      </c>
+      <c r="H12" s="8">
+        <v>41.42</v>
+      </c>
+      <c r="I12" s="8">
+        <v>22.02</v>
+      </c>
+      <c r="J12" s="8">
+        <v>22.92</v>
+      </c>
+      <c r="K12" s="8">
+        <v>22.92</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3.38</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2.46</v>
+      </c>
+      <c r="O12" s="8">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="9">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="11">
         <v>0.152</v>
       </c>
       <c r="D13" s="1">
         <v>0.07</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>0.778</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="1">
         <v>0.038</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>0.873</v>
       </c>
       <c r="E14" s="1">
         <v>0.09</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>29.96</v>
+      </c>
+      <c r="I14" s="8">
+        <v>16.08</v>
+      </c>
+      <c r="J14" s="8">
+        <v>15.86</v>
+      </c>
+      <c r="K14" s="8">
+        <v>16.04</v>
+      </c>
+      <c r="L14" s="8">
+        <v>4</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1.92</v>
+      </c>
+      <c r="N14" s="8">
+        <v>3.29</v>
+      </c>
+      <c r="O14" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <v>0.019</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>0.902</v>
       </c>
       <c r="E15" s="1">
         <v>0.079</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="8">
+        <v>18.55</v>
+      </c>
+      <c r="H15" s="8">
+        <v>38.74</v>
+      </c>
+      <c r="I15" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>22.28</v>
+      </c>
+      <c r="K15" s="8">
+        <v>22.28</v>
+      </c>
+      <c r="L15" s="8">
+        <v>3.28</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1.67</v>
+      </c>
+      <c r="N15" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="O15" s="8">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="1">
         <v>0.03</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>0.895</v>
       </c>
       <c r="E16" s="1">
         <v>0.076</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8">
+        <v>15.73</v>
+      </c>
+      <c r="H16" s="8">
+        <v>33.94</v>
+      </c>
+      <c r="I16" s="8">
+        <v>18.16</v>
+      </c>
+      <c r="J16" s="8">
+        <v>19.42</v>
+      </c>
+      <c r="K16" s="8">
+        <v>19.6</v>
+      </c>
+      <c r="L16" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2.24</v>
+      </c>
+      <c r="N16" s="8">
+        <v>3.44</v>
+      </c>
+      <c r="O16" s="8">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>0.071</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>0.857</v>
       </c>
       <c r="E17" s="1">
         <v>0.072</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="9">
+        <v>52</v>
+      </c>
+      <c r="C18" s="11">
         <v>0.388</v>
       </c>
       <c r="D18" s="1">
         <v>0.03</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>0.583</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="1">
         <v>0.014</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>0.915</v>
       </c>
       <c r="E19" s="1">
         <v>0.071</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="13">
+        <v>15.16</v>
+      </c>
+      <c r="H19" s="13">
+        <v>34.19</v>
+      </c>
+      <c r="I19" s="13">
+        <v>19.92</v>
+      </c>
+      <c r="J19" s="13">
+        <v>18.19</v>
+      </c>
+      <c r="K19" s="13">
+        <v>14.48</v>
+      </c>
+      <c r="L19" s="13">
+        <v>4.66</v>
+      </c>
+      <c r="M19" s="13">
+        <v>1.04</v>
+      </c>
+      <c r="N19" s="13">
+        <v>4.22</v>
+      </c>
+      <c r="O19" s="13">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>0.016</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>0.295</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>0.689</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8">
+        <v>20.74</v>
+      </c>
+      <c r="H20" s="8">
+        <v>40.74</v>
+      </c>
+      <c r="I20" s="8">
+        <v>21.22</v>
+      </c>
+      <c r="J20" s="8">
+        <v>22.7</v>
+      </c>
+      <c r="K20" s="8">
+        <v>22.92</v>
+      </c>
+      <c r="L20" s="8">
+        <v>5</v>
+      </c>
+      <c r="M20" s="8">
+        <v>2.26</v>
+      </c>
+      <c r="N20" s="8">
+        <v>3.68</v>
+      </c>
+      <c r="O20" s="8">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="9">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="11">
         <v>0.131</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>0.698</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>0.172</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8">
+        <v>12.78</v>
+      </c>
+      <c r="H21" s="8">
+        <v>30.84</v>
+      </c>
+      <c r="I21" s="8">
+        <v>17.1</v>
+      </c>
+      <c r="J21" s="8">
+        <v>15.94</v>
+      </c>
+      <c r="K21" s="8">
+        <v>13.34</v>
+      </c>
+      <c r="L21" s="8">
+        <v>3.54</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2.96</v>
+      </c>
+      <c r="O21" s="8">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1">
         <v>0.012</v>
@@ -1800,239 +2469,563 @@
       <c r="D23" s="1">
         <v>0.025</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>0.962</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C24" s="1">
         <v>0.075</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>0.155</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>0.771</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="13">
+        <v>20.14</v>
+      </c>
+      <c r="H24" s="13">
+        <v>33.42</v>
+      </c>
+      <c r="I24" s="13">
+        <v>18.56</v>
+      </c>
+      <c r="J24" s="13">
+        <v>20.15</v>
+      </c>
+      <c r="K24" s="13">
+        <v>20.15</v>
+      </c>
+      <c r="L24" s="13">
+        <v>3.98</v>
+      </c>
+      <c r="M24" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="N24" s="13">
+        <v>2.22</v>
+      </c>
+      <c r="O24" s="13">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1">
         <v>0.081</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>0.385</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <v>0.534</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C26" s="1">
         <v>0.012</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>0.138</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="6">
         <v>0.85</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8">
+        <v>17.24</v>
+      </c>
+      <c r="H26" s="8">
+        <v>38.86</v>
+      </c>
+      <c r="I26" s="8">
+        <v>21.62</v>
+      </c>
+      <c r="J26" s="8">
+        <v>20.06</v>
+      </c>
+      <c r="K26" s="8">
+        <v>20.1</v>
+      </c>
+      <c r="L26" s="8">
+        <v>4.58</v>
+      </c>
+      <c r="M26" s="8">
+        <v>3.14</v>
+      </c>
+      <c r="N26" s="8">
+        <v>3.26</v>
+      </c>
+      <c r="O26" s="8">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C27" s="1">
         <v>0.055</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <v>0.724</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="6">
         <v>0.221</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8">
+        <v>17.24</v>
+      </c>
+      <c r="H27" s="8">
+        <v>36.72</v>
+      </c>
+      <c r="I27" s="8">
+        <v>19.22</v>
+      </c>
+      <c r="J27" s="8">
+        <v>20.32</v>
+      </c>
+      <c r="K27" s="8">
+        <v>20.32</v>
+      </c>
+      <c r="L27" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="N27" s="8">
+        <v>3.44</v>
+      </c>
+      <c r="O27" s="8">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="9">
+        <v>71</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="11">
         <v>0.101</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <v>0.283</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="6">
         <v>0.616</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8">
+        <v>15.62</v>
+      </c>
+      <c r="H28" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>22.1</v>
+      </c>
+      <c r="J28" s="8">
+        <v>21.48</v>
+      </c>
+      <c r="K28" s="8">
+        <v>20.78</v>
+      </c>
+      <c r="L28" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="M28" s="8">
+        <v>2.42</v>
+      </c>
+      <c r="N28" s="8">
+        <v>4.06</v>
+      </c>
+      <c r="O28" s="8">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="9">
+        <v>74</v>
+      </c>
+      <c r="C29" s="11">
         <v>0.334</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>0.638</v>
       </c>
       <c r="E29" s="1">
         <v>0.028</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="9">
+        <v>75</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="11">
         <v>0.108</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>0.123</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="6">
         <v>0.769</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="14">
+        <v>14.22</v>
+      </c>
+      <c r="H30" s="8">
+        <v>32.3</v>
+      </c>
+      <c r="I30" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="J30" s="8">
+        <v>20.1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>19.54</v>
+      </c>
+      <c r="L30" s="8">
+        <v>4.4</v>
+      </c>
+      <c r="M30" s="8">
+        <v>2.74</v>
+      </c>
+      <c r="N30" s="8">
+        <v>3.34</v>
+      </c>
+      <c r="O30" s="8">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="9">
+        <v>78</v>
+      </c>
+      <c r="C31" s="11">
         <v>0.175</v>
       </c>
       <c r="D31" s="1">
         <v>0.09</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <v>0.734</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1">
         <v>0.064</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>0.439</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="6">
         <v>0.497</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="9">
+        <v>82</v>
+      </c>
+      <c r="C33" s="11">
         <v>0.505</v>
       </c>
       <c r="D33" s="1">
         <v>0.021</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="6">
         <v>0.474</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1">
         <v>0.017</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>0.954</v>
       </c>
       <c r="E34" s="1">
         <v>0.03</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1">
         <v>0.06</v>
@@ -2040,99 +3033,234 @@
       <c r="D35" s="1">
         <v>0.091</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="6">
         <v>0.849</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1">
         <v>0.066</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>0.216</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="6">
         <v>0.718</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="9">
+        <v>90</v>
+      </c>
+      <c r="C37" s="11">
         <v>0.329</v>
       </c>
       <c r="D37" s="1">
         <v>0.053</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="6">
         <v>0.618</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C38" s="1">
         <v>0.078</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>0.157</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="6">
         <v>0.765</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1">
         <v>0.032</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>0.148</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="6">
         <v>0.82</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1">
         <v>0.021</v>
@@ -2140,19 +3268,46 @@
       <c r="D40" s="1">
         <v>0.019</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="6">
         <v>0.96</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1">
         <v>0.017</v>
@@ -2160,171 +3315,415 @@
       <c r="D41" s="1">
         <v>0.044</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="6">
         <v>0.939</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1">
         <v>0.073</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>0.869</v>
       </c>
       <c r="E42" s="1">
         <v>0.058</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="8">
+        <v>12.79</v>
+      </c>
+      <c r="H42" s="8">
+        <v>27.72</v>
+      </c>
+      <c r="I42" s="8">
+        <v>16.36</v>
+      </c>
+      <c r="J42" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="K42" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="L42" s="8">
+        <v>3.26</v>
+      </c>
+      <c r="M42" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="N42" s="8">
+        <v>3.64</v>
+      </c>
+      <c r="O42" s="8">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C43" s="1">
         <v>0.02</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>0.538</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="6">
         <v>0.442</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C44" s="1">
         <v>0.04</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>0.264</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="6">
         <v>0.696</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1">
         <v>0.01</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>0.193</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="6">
         <v>0.798</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="9">
+        <v>108</v>
+      </c>
+      <c r="C46" s="11">
         <v>0.449</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>0.103</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="6">
         <v>0.449</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1">
         <v>0.016</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>0.895</v>
       </c>
       <c r="E47" s="1">
         <v>0.089</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C48" s="1">
         <v>0.031</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <v>0.719</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="6">
         <v>0.25</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="8">
+        <v>17.12</v>
+      </c>
+      <c r="H48" s="8">
+        <v>31.14</v>
+      </c>
+      <c r="I48" s="8">
+        <v>15.32</v>
+      </c>
+      <c r="J48" s="8">
+        <v>17.36</v>
+      </c>
+      <c r="K48" s="8">
+        <v>17.95</v>
+      </c>
+      <c r="L48" s="8">
+        <v>3.08</v>
+      </c>
+      <c r="M48" s="8">
+        <v>3.06</v>
+      </c>
+      <c r="N48" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="O48" s="13">
+        <f>H48/120.5*11.7</f>
+        <v>3.02355186721992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1">
         <v>0.059</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="5">
         <v>0.114</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="6">
         <v>0.827</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>9</v>
+      <c r="F49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2338,6 +3737,11 @@
   <sortState ref="A2:E50">
     <sortCondition ref="B2:B50"/>
   </sortState>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>126</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Edulis trossulus galloprovincialis in Goseid/R_calc_geomorph/Data/gen_markers.xlsx
+++ b/Edulis trossulus galloprovincialis in Goseid/R_calc_geomorph/Data/gen_markers.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$O$49</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -43,7 +46,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>l</t>
+    <t>lig</t>
   </si>
   <si>
     <t>a</t>
@@ -366,12 +369,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,54 +421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,13 +430,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,11 +449,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,10 +481,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,14 +498,53 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,14 +559,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,25 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,25 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,13 +652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,13 +694,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,13 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,31 +772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,15 +795,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -825,51 +813,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -892,27 +839,77 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,131 +921,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,6 +1057,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,7 +1073,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:O49"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1462,7 +1462,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1476,43 +1476,43 @@
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>0.363</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>0.542</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>19.72</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="9">
         <v>36.54</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <v>19.72</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="9">
         <v>19.5</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <v>19.92</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="9">
         <v>4.97</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="9">
         <v>2.84</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="9">
         <v>4.18</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="9">
         <v>3.8</v>
       </c>
     </row>
@@ -1532,34 +1532,34 @@
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>15.92</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>32.7</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <v>16.84</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="9">
         <v>17</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
         <v>14.74</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="9">
         <v>3.08</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="9">
         <v>0.84</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="9">
         <v>3.54</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="9">
         <v>4.42</v>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1579,7 +1579,7 @@
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
@@ -1620,13 +1620,13 @@
       <c r="C5" s="1">
         <v>0.097</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>0.745</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>0.159</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
@@ -1661,19 +1661,19 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>0.024</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>0.934</v>
       </c>
       <c r="E6" s="1">
         <v>0.042</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
@@ -1708,19 +1708,19 @@
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>0.019</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>0.262</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>0.72</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
@@ -1755,19 +1755,19 @@
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>0.411</v>
       </c>
       <c r="D8" s="1">
         <v>0.046</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>0.543</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
@@ -1808,13 +1808,13 @@
       <c r="C9" s="1">
         <v>0.024</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>0.933</v>
       </c>
       <c r="E9" s="1">
         <v>0.043</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
@@ -1855,13 +1855,13 @@
       <c r="C10" s="1">
         <v>0.054</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>0.905</v>
       </c>
       <c r="E10" s="1">
         <v>0.041</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
@@ -1896,46 +1896,46 @@
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>0.015</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>0.891</v>
       </c>
       <c r="E11" s="1">
         <v>0.095</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>18.14</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <v>38.34</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <v>21.16</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="9">
         <v>20.22</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="9">
         <v>20.22</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="9">
         <v>4.25</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="9">
         <v>2.94</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="9">
         <v>3.72</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="9">
         <v>3.52</v>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="1">
@@ -1952,37 +1952,37 @@
       <c r="D12" s="1">
         <v>0.028</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>0.955</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>20.54</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>41.42</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>22.02</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <v>22.92</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>22.92</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="9">
         <v>3.38</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="9">
         <v>2.1</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="9">
         <v>2.46</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="9">
         <v>3.32</v>
       </c>
     </row>
@@ -1990,19 +1990,19 @@
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>0.152</v>
       </c>
       <c r="D13" s="1">
         <v>0.07</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>0.778</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
@@ -2043,40 +2043,40 @@
       <c r="C14" s="1">
         <v>0.038</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>0.873</v>
       </c>
       <c r="E14" s="1">
         <v>0.09</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>15.2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>29.96</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <v>16.08</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="9">
         <v>15.86</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>16.04</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="9">
         <v>4</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="9">
         <v>1.92</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="9">
         <v>3.29</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="9">
         <v>2.8</v>
       </c>
     </row>
@@ -2090,40 +2090,40 @@
       <c r="C15" s="1">
         <v>0.019</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>0.902</v>
       </c>
       <c r="E15" s="1">
         <v>0.079</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <v>18.55</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="9">
         <v>38.74</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="9">
         <v>21.1</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="9">
         <v>22.28</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="9">
         <v>22.28</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="9">
         <v>3.28</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="9">
         <v>1.67</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="9">
         <v>3.95</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="9">
         <v>4.41</v>
       </c>
     </row>
@@ -2137,40 +2137,40 @@
       <c r="C16" s="1">
         <v>0.03</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>0.895</v>
       </c>
       <c r="E16" s="1">
         <v>0.076</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>15.73</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <v>33.94</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="9">
         <v>18.16</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="9">
         <v>19.42</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="9">
         <v>19.6</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="9">
         <v>4.49</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="9">
         <v>2.24</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="9">
         <v>3.44</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="9">
         <v>4.16</v>
       </c>
     </row>
@@ -2178,19 +2178,19 @@
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>0.071</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>0.857</v>
       </c>
       <c r="E17" s="1">
         <v>0.072</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G17" t="s">
@@ -2228,16 +2228,16 @@
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>0.388</v>
       </c>
       <c r="D18" s="1">
         <v>0.03</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>0.583</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
@@ -2278,40 +2278,40 @@
       <c r="C19" s="1">
         <v>0.014</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>0.915</v>
       </c>
       <c r="E19" s="1">
         <v>0.071</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="14">
         <v>15.16</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="14">
         <v>34.19</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="14">
         <v>19.92</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="14">
         <v>18.19</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="14">
         <v>14.48</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="14">
         <v>4.66</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="14">
         <v>1.04</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="14">
         <v>4.22</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="14">
         <v>4.22</v>
       </c>
     </row>
@@ -2319,46 +2319,46 @@
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>0.016</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>0.295</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>0.689</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <v>20.74</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="9">
         <v>40.74</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="9">
         <v>21.22</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="9">
         <v>22.7</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="9">
         <v>22.92</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="9">
         <v>5</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="9">
         <v>2.26</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="9">
         <v>3.68</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="9">
         <v>4.74</v>
       </c>
     </row>
@@ -2369,43 +2369,43 @@
       <c r="B21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>0.131</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>0.698</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <v>0.172</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <v>12.78</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="9">
         <v>30.84</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="9">
         <v>17.1</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="9">
         <v>15.94</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="9">
         <v>13.34</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="9">
         <v>3.54</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="9">
         <v>0.98</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="9">
         <v>2.96</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="9">
         <v>2.64</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2425,7 +2425,7 @@
       <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G22" t="s">
@@ -2469,10 +2469,10 @@
       <c r="D23" s="1">
         <v>0.025</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>0.962</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G23" t="s">
@@ -2513,40 +2513,40 @@
       <c r="C24" s="1">
         <v>0.075</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>0.155</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>0.771</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="14">
         <v>20.14</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="14">
         <v>33.42</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="14">
         <v>18.56</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="14">
         <v>20.15</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="14">
         <v>20.15</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="14">
         <v>3.98</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="14">
         <v>2.02</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="14">
         <v>2.22</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="14">
         <v>3.4</v>
       </c>
     </row>
@@ -2560,13 +2560,13 @@
       <c r="C25" s="1">
         <v>0.081</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
         <v>0.385</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>0.534</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G25" t="s">
@@ -2607,40 +2607,40 @@
       <c r="C26" s="1">
         <v>0.012</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>0.138</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>0.85</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="9">
         <v>17.24</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="9">
         <v>38.86</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="9">
         <v>21.62</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="9">
         <v>20.06</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <v>20.1</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="9">
         <v>4.58</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="9">
         <v>3.14</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="9">
         <v>3.26</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="9">
         <v>3.08</v>
       </c>
     </row>
@@ -2654,40 +2654,40 @@
       <c r="C27" s="1">
         <v>0.055</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="6">
         <v>0.724</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="7">
         <v>0.221</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <v>17.24</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="9">
         <v>36.72</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="9">
         <v>19.22</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="9">
         <v>20.32</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="9">
         <v>20.32</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="9">
         <v>3.86</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="9">
         <v>1.74</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="9">
         <v>3.44</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="9">
         <v>6.05</v>
       </c>
     </row>
@@ -2698,43 +2698,43 @@
       <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="12">
         <v>0.101</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>0.283</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>0.616</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <v>15.62</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="9">
         <v>36.1</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="9">
         <v>22.1</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="9">
         <v>21.48</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="9">
         <v>20.78</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="9">
         <v>4.41</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="9">
         <v>2.42</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="9">
         <v>4.06</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="9">
         <v>3.82</v>
       </c>
     </row>
@@ -2745,16 +2745,16 @@
       <c r="B29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="12">
         <v>0.334</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <v>0.638</v>
       </c>
       <c r="E29" s="1">
         <v>0.028</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G29" t="s">
@@ -2792,43 +2792,43 @@
       <c r="B30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="12">
         <v>0.108</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>0.123</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="7">
         <v>0.769</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="15">
         <v>14.22</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="9">
         <v>32.3</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="9">
         <v>14.26</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="9">
         <v>20.1</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="9">
         <v>19.54</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="9">
         <v>4.4</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="9">
         <v>2.74</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="9">
         <v>3.34</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="9">
         <v>2.55</v>
       </c>
     </row>
@@ -2839,16 +2839,16 @@
       <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>0.175</v>
       </c>
       <c r="D31" s="1">
         <v>0.09</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="7">
         <v>0.734</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G31" t="s">
@@ -2889,13 +2889,13 @@
       <c r="C32" s="1">
         <v>0.064</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <v>0.439</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="7">
         <v>0.497</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G32" t="s">
@@ -2933,16 +2933,16 @@
       <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="12">
         <v>0.505</v>
       </c>
       <c r="D33" s="1">
         <v>0.021</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="7">
         <v>0.474</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G33" t="s">
@@ -2983,13 +2983,13 @@
       <c r="C34" s="1">
         <v>0.017</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="6">
         <v>0.954</v>
       </c>
       <c r="E34" s="1">
         <v>0.03</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="s">
@@ -3033,10 +3033,10 @@
       <c r="D35" s="1">
         <v>0.091</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="7">
         <v>0.849</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G35" t="s">
@@ -3077,13 +3077,13 @@
       <c r="C36" s="1">
         <v>0.066</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="6">
         <v>0.216</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="7">
         <v>0.718</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G36" t="s">
@@ -3121,16 +3121,16 @@
       <c r="B37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="12">
         <v>0.329</v>
       </c>
       <c r="D37" s="1">
         <v>0.053</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="7">
         <v>0.618</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G37" t="s">
@@ -3171,13 +3171,13 @@
       <c r="C38" s="1">
         <v>0.078</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
         <v>0.157</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>0.765</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G38" t="s">
@@ -3218,13 +3218,13 @@
       <c r="C39" s="1">
         <v>0.032</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="6">
         <v>0.148</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="7">
         <v>0.82</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G39" t="s">
@@ -3268,10 +3268,10 @@
       <c r="D40" s="1">
         <v>0.019</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="7">
         <v>0.96</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G40" t="s">
@@ -3315,10 +3315,10 @@
       <c r="D41" s="1">
         <v>0.044</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="7">
         <v>0.939</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G41" t="s">
@@ -3359,40 +3359,40 @@
       <c r="C42" s="1">
         <v>0.073</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
         <v>0.869</v>
       </c>
       <c r="E42" s="1">
         <v>0.058</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="9">
         <v>12.79</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="9">
         <v>27.72</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="9">
         <v>16.36</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="9">
         <v>14.6</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="9">
         <v>14.6</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="9">
         <v>3.26</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="9">
         <v>1.32</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="9">
         <v>3.64</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="9">
         <v>3.41</v>
       </c>
     </row>
@@ -3406,13 +3406,13 @@
       <c r="C43" s="1">
         <v>0.02</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <v>0.538</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="7">
         <v>0.442</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
@@ -3453,13 +3453,13 @@
       <c r="C44" s="1">
         <v>0.04</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
         <v>0.264</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="7">
         <v>0.696</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G44" t="s">
@@ -3500,13 +3500,13 @@
       <c r="C45" s="1">
         <v>0.01</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
         <v>0.193</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="7">
         <v>0.798</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
@@ -3544,16 +3544,16 @@
       <c r="B46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="12">
         <v>0.449</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
         <v>0.103</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="7">
         <v>0.449</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G46" t="s">
@@ -3594,13 +3594,13 @@
       <c r="C47" s="1">
         <v>0.016</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="6">
         <v>0.895</v>
       </c>
       <c r="E47" s="1">
         <v>0.089</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G47" t="s">
@@ -3641,40 +3641,40 @@
       <c r="C48" s="1">
         <v>0.031</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="6">
         <v>0.719</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="7">
         <v>0.25</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <v>17.12</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="9">
         <v>31.14</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="9">
         <v>15.32</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="9">
         <v>17.36</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="9">
         <v>17.95</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="9">
         <v>3.08</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="9">
         <v>3.06</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="9">
         <v>3.25</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="14">
         <f>H48/120.5*11.7</f>
         <v>3.02355186721992</v>
       </c>
@@ -3689,13 +3689,13 @@
       <c r="C49" s="1">
         <v>0.059</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="6">
         <v>0.114</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="7">
         <v>0.827</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G49" t="s">
@@ -3734,6 +3734,9 @@
       <c r="E50" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O49">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A2:E50">
     <sortCondition ref="B2:B50"/>
   </sortState>

--- a/Edulis trossulus galloprovincialis in Goseid/R_calc_geomorph/Data/gen_markers.xlsx
+++ b/Edulis trossulus galloprovincialis in Goseid/R_calc_geomorph/Data/gen_markers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -387,10 +387,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -439,34 +439,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,37 +468,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,7 +501,45 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,17 +553,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,7 +577,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,7 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,19 +640,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,67 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,13 +700,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,55 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,45 +821,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,21 +874,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,131 +939,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,7 +1077,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1440,8 +1439,8 @@
   <sheetPr/>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1476,2576 +1475,2576 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.363</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>0.542</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="17">
+      <c r="H2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16">
         <v>19.72</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <v>36.54</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>19.72</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="16">
         <v>19.5</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>19.92</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="16">
         <v>4.97</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="16">
         <v>2.84</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="16">
         <v>4.18</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="16">
         <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="17">
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="16">
         <v>15.92</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>32.7</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <v>16.84</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <v>17</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>14.74</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="16">
         <v>3.08</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="16">
         <v>0.84</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="16">
         <v>3.54</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="16">
         <v>4.42</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="18" t="s">
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>0.097</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.745</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.159</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="18" t="s">
+      <c r="H5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0.024</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.934</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>0.042</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="18" t="s">
+      <c r="G6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>0.019</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.262</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.72</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="18" t="s">
+      <c r="H7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>0.411</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>0.046</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.543</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="18" t="s">
+      <c r="I8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>0.024</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.933</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>0.043</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="18" t="s">
+      <c r="G9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>0.054</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.905</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>0.041</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="18" t="s">
+      <c r="G10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>0.015</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.891</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>0.095</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="17">
+      <c r="G11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="16">
         <v>18.14</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>38.34</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>21.16</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>20.22</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>20.22</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>4.25</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>2.94</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="16">
         <v>3.72</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="16">
         <v>3.52</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>0.017</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>0.028</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>0.955</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>20.54</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>41.42</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>22.02</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>22.92</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>22.92</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <v>3.38</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="16">
         <v>2.1</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="16">
         <v>2.46</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="16">
         <v>3.32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>0.152</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>0.07</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0.778</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="18" t="s">
+      <c r="I13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>0.038</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>0.873</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>0.09</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="G14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="16">
         <v>15.2</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>29.96</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>16.08</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="16">
         <v>15.86</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>16.04</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="16">
         <v>4</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="16">
         <v>1.92</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="16">
         <v>3.29</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="16">
         <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>0.019</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>0.902</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>0.079</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="G15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="16">
         <v>18.55</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>38.74</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>21.1</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="16">
         <v>22.28</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>22.28</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="16">
         <v>3.28</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="16">
         <v>1.67</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="16">
         <v>3.95</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="16">
         <v>4.41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>0.03</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>0.895</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>0.076</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="G16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="16">
         <v>15.73</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>33.94</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>18.16</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="16">
         <v>19.42</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>19.6</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="16">
         <v>4.49</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="16">
         <v>2.24</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="16">
         <v>3.44</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="16">
         <v>4.16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>0.071</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>0.857</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>0.072</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="18" t="s">
+      <c r="G17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>0.388</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>0.03</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>0.583</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="18" t="s">
+      <c r="I18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>0.014</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>0.915</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <v>0.071</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="G19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="18">
         <v>15.16</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="18">
         <v>34.19</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="18">
         <v>19.92</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <v>18.19</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <v>14.48</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="18">
         <v>4.66</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="18">
         <v>1.04</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="18">
         <v>4.22</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="18">
         <v>4.22</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <v>0.016</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>0.295</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>0.689</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="17">
+      <c r="H20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="16">
         <v>20.74</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="16">
         <v>40.74</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="16">
         <v>21.22</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="16">
         <v>22.7</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="16">
         <v>22.92</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="16">
         <v>5</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="16">
         <v>2.26</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="16">
         <v>3.68</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="16">
         <v>4.74</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>0.131</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>0.698</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>0.172</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="17">
+      <c r="H21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="16">
         <v>12.78</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="16">
         <v>30.84</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="16">
         <v>17.1</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>15.94</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="16">
         <v>13.34</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="16">
         <v>3.54</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="16">
         <v>0.98</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="16">
         <v>2.96</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="16">
         <v>2.64</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="18" t="s">
+      <c r="G22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="2">
         <v>0.012</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>0.025</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>0.962</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="18" t="s">
+      <c r="I23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <v>0.075</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>0.155</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>0.771</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="H24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="18">
         <v>20.14</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="18">
         <v>33.42</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="18">
         <v>18.56</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="18">
         <v>20.15</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="18">
         <v>20.15</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="18">
         <v>3.98</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="18">
         <v>2.02</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="18">
         <v>2.22</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="18">
         <v>3.4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <v>0.081</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>0.385</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>0.534</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="18" t="s">
+      <c r="H25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="2">
         <v>0.012</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>0.138</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>0.85</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="17">
+      <c r="H26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="16">
         <v>17.24</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="16">
         <v>38.86</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="16">
         <v>21.62</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="16">
         <v>20.06</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="16">
         <v>20.1</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="16">
         <v>4.58</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="16">
         <v>3.14</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="16">
         <v>3.26</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="16">
         <v>3.08</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="2">
         <v>0.055</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>0.724</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>0.221</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="17">
+      <c r="H27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="16">
         <v>17.24</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="16">
         <v>36.72</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="16">
         <v>19.22</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="16">
         <v>20.32</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="16">
         <v>20.32</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="16">
         <v>3.86</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="16">
         <v>1.74</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="16">
         <v>3.44</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="16">
         <v>6.05</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>0.101</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>0.283</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>0.616</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="17">
+      <c r="H28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="16">
         <v>15.62</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="16">
         <v>36.1</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="16">
         <v>22.1</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="16">
         <v>21.48</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="16">
         <v>20.78</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="16">
         <v>4.41</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="16">
         <v>2.42</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="16">
         <v>4.06</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="16">
         <v>3.82</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>0.334</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>0.638</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="2">
         <v>0.028</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="18" t="s">
+      <c r="H29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>0.108</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>0.123</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>0.769</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="20">
+      <c r="H30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="19">
         <v>14.22</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="16">
         <v>32.3</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="16">
         <v>14.26</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="16">
         <v>20.1</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="16">
         <v>19.54</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="16">
         <v>4.4</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="16">
         <v>2.74</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="16">
         <v>3.34</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="16">
         <v>2.55</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>0.175</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2">
         <v>0.09</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>0.734</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="18" t="s">
+      <c r="I31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="2">
         <v>0.064</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>0.439</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>0.497</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="18" t="s">
+      <c r="H32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>0.505</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="2">
         <v>0.021</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>0.474</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="18" t="s">
+      <c r="I33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
         <v>0.017</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>0.954</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="2">
         <v>0.03</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="18" t="s">
+      <c r="G34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="2">
         <v>0.06</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="2">
         <v>0.091</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>0.849</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="18" t="s">
+      <c r="I35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>0.066</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>0.216</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>0.718</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="18" t="s">
+      <c r="H36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>0.329</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="2">
         <v>0.053</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>0.618</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q37" s="18" t="s">
+      <c r="I37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="2">
         <v>0.078</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>0.157</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>0.765</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="18" t="s">
+      <c r="H38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="2">
         <v>0.032</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>0.148</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>0.82</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="18" t="s">
+      <c r="H39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="2">
         <v>0.021</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="2">
         <v>0.019</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>0.96</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="18" t="s">
+      <c r="I40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="2">
         <v>0.017</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="2">
         <v>0.044</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>0.939</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q41" s="18" t="s">
+      <c r="I41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="2">
         <v>0.073</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>0.869</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="2">
         <v>0.058</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="17">
+      <c r="G42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="16">
         <v>12.79</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="16">
         <v>27.72</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="16">
         <v>16.36</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="16">
         <v>14.6</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="16">
         <v>14.6</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="16">
         <v>3.26</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="16">
         <v>1.32</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42" s="16">
         <v>3.64</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="16">
         <v>3.41</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="2">
         <v>0.02</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>0.538</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>0.442</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="18" t="s">
+      <c r="H43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="2">
         <v>0.04</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>0.264</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>0.696</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="18" t="s">
+      <c r="H44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="2">
         <v>0.01</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>0.193</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>0.798</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q45" s="18" t="s">
+      <c r="H45" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>0.449</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>0.103</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <v>0.449</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="18" t="s">
+      <c r="H46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="2">
         <v>0.016</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>0.895</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="2">
         <v>0.089</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="18" t="s">
+      <c r="G47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="2">
         <v>0.031</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>0.719</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>0.25</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="17">
+      <c r="H48" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="16">
         <v>17.12</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="16">
         <v>31.14</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="16">
         <v>15.32</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="16">
         <v>17.36</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="16">
         <v>17.95</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N48" s="16">
         <v>3.08</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="16">
         <v>3.06</v>
       </c>
-      <c r="P48" s="17">
+      <c r="P48" s="16">
         <v>3.25</v>
       </c>
-      <c r="Q48" s="19">
+      <c r="Q48" s="18">
         <f>J48/120.5*11.7</f>
         <v>3.02355186721992</v>
       </c>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="2">
         <v>0.059</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>0.114</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>0.827</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="18" t="s">
+      <c r="H49" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4058,7 +4057,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q49">
-    <sortState ref="A2:Q49">
+    <sortState ref="A1:Q49">
       <sortCondition ref="B2:B49"/>
     </sortState>
     <extLst/>
